--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample03-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample03-from-config-file.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Stacked area chart" sheetId="1" r:id="rId1"/>
+    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Stacked area chart'!$A$1:$G$1</definedName>
@@ -958,4 +959,15 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample03-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample03-from-config-file.xlsx
@@ -6,7 +6,6 @@
   </bookViews>
   <sheets>
     <sheet name="Stacked area chart" sheetId="1" r:id="rId1"/>
-    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Stacked area chart'!$A$1:$G$1</definedName>
@@ -959,15 +958,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample03-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample03-from-config-file.xlsx
@@ -622,8 +622,8 @@
   <cols>
     <col min="1" max="1" width="11.8295484270368" customWidth="1"/>
     <col min="2" max="2" width="10.0456025259835" customWidth="1"/>
-    <col min="3" max="3" width="8.91818455287388" customWidth="1"/>
-    <col min="4" max="4" width="7.42655563354492" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="16.8203408377511" customWidth="1"/>
     <col min="6" max="6" width="16.8101109095982" customWidth="1"/>
     <col min="7" max="7" width="11.6947838919503" customWidth="1"/>
